--- a/biology/Zoologie/Glaphyridae/Glaphyridae.xlsx
+++ b/biology/Zoologie/Glaphyridae/Glaphyridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Glaphyridae sont une famille de coléoptères comprenant environ 200 espèces[2] réparties sur dix genres dont quatre éteints. Cette famille appartient à la super-famille des Scarabaeoidea.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Glaphyridae sont une famille de coléoptères comprenant environ 200 espèces réparties sur dix genres dont quatre éteints. Cette famille appartient à la super-famille des Scarabaeoidea.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Glaphyridae a été créée en 1819 par William Sharp Macleay.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille mesurent entre 6 et 20 mm de long.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (15 mars 2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (15 mars 2021) :
 sous-famille † Cretoglaphyrinae Nikolajev, 2005
 genre † Cretoglaphyrus Nikolajev, 2005
 sous-famille Glaphyrinae MacLeay, 1819
